--- a/Data/Labor and Employment/Labor by Sector.xlsx
+++ b/Data/Labor and Employment/Labor by Sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/236e6b124acc9753/Documents/Indicators/Data/Labor and Employment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Labor and Employment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0E010F82-0377-4CFA-B2BE-3AD57A0D16F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC062C4A-FC4E-40C9-8E9E-51340F28C7B4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A079A03B-0F9D-4BA2-A17E-5C601873B5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="960" windowWidth="14535" windowHeight="10815" xr2:uid="{ED0AE727-A742-4951-9735-66CBAC75CCC6}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{ED0AE727-A742-4951-9735-66CBAC75CCC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="62">
   <si>
     <t>ALL INDUSTRIES</t>
   </si>
@@ -196,6 +196,30 @@
   </si>
   <si>
     <t>Population Base</t>
+  </si>
+  <si>
+    <t>2021Nov</t>
+  </si>
+  <si>
+    <t>2021Sep</t>
+  </si>
+  <si>
+    <t>2021Aug</t>
+  </si>
+  <si>
+    <t>2021Jun</t>
+  </si>
+  <si>
+    <t>2021May</t>
+  </si>
+  <si>
+    <t>2021Feb</t>
+  </si>
+  <si>
+    <t>2021Mar</t>
+  </si>
+  <si>
+    <t>2021Dec</t>
   </si>
 </sst>
 </file>
@@ -593,13 +617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421FD955-1561-48B3-95F5-2ACBFF6416AB}">
-  <dimension ref="A1:AA54"/>
+  <dimension ref="A1:AI54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomRight" activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,10 +631,10 @@
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="27" width="10.7109375" customWidth="1"/>
+    <col min="4" max="35" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -683,17 +707,41 @@
       <c r="X1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" t="s">
         <v>51</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AH1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,14 +783,38 @@
         <v>41247.771000000001</v>
       </c>
       <c r="Y2" s="4">
+        <v>43153.195</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>45331.550999999999</v>
+      </c>
+      <c r="AA2" s="4">
         <v>43269.201000000001</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="AB2" s="4">
+        <v>44715.87</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>45075.442000000003</v>
+      </c>
+      <c r="AD2" s="4">
         <v>41667.056000000004</v>
       </c>
-      <c r="AA2" s="4"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE2" s="4">
+        <v>44233.788999999997</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>43591.843000000001</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>43826.271999999997</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>45477.428</v>
+      </c>
+      <c r="AI2" s="4"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -768,8 +840,16 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -811,14 +891,38 @@
         <v>8923.5720000000001</v>
       </c>
       <c r="Y4" s="4">
+        <v>9079.259</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>9702.74</v>
+      </c>
+      <c r="AA4" s="4">
         <v>9210.1319999999996</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AB4" s="4">
+        <v>9494.2880000000005</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>9612.4089999999997</v>
+      </c>
+      <c r="AD4" s="4">
         <v>8069.4450000000006</v>
       </c>
-      <c r="AA4" s="4"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE4" s="4">
+        <v>9849.8359999999993</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>8987.5570000000007</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>9417.0429999999997</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>9453.5169999999998</v>
+      </c>
+      <c r="AI4" s="4"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -860,14 +964,38 @@
         <v>1120.559</v>
       </c>
       <c r="Y5" s="4">
+        <v>1223.664</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>1426.8810000000001</v>
+      </c>
+      <c r="AA5" s="4">
         <v>1349.7470000000001</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AB5" s="4">
+        <v>1131.694</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>1325.5609999999999</v>
+      </c>
+      <c r="AD5" s="4">
         <v>1118.2950000000001</v>
       </c>
-      <c r="AA5" s="4"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE5" s="4">
+        <v>1246.5419999999999</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>1259.1289999999999</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>1352.0329999999999</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>1706.5740000000001</v>
+      </c>
+      <c r="AI5" s="4"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -891,8 +1019,16 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -934,14 +1070,38 @@
         <v>177.483</v>
       </c>
       <c r="Y7" s="4">
+        <v>143.88499999999999</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>169.25800000000001</v>
+      </c>
+      <c r="AA7" s="4">
         <v>192.364</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AB7" s="4">
+        <v>122.03</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>181.27199999999999</v>
+      </c>
+      <c r="AD7" s="4">
         <v>195.70099999999999</v>
       </c>
-      <c r="AA7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE7" s="4">
+        <v>214.46600000000001</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>139.273</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>169.85900000000001</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>134.982</v>
+      </c>
+      <c r="AI7" s="4"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -983,14 +1143,38 @@
         <v>3139.578</v>
       </c>
       <c r="Y8" s="4">
+        <v>3275.6959999999999</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>3560.4990000000003</v>
+      </c>
+      <c r="AA8" s="4">
         <v>3419.9670000000001</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="AB8" s="4">
+        <v>3548.1420000000003</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>3502.4679999999998</v>
+      </c>
+      <c r="AD8" s="4">
         <v>3538.89</v>
       </c>
-      <c r="AA8" s="4"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE8" s="4">
+        <v>3708.09</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>3365.0149999999999</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>3325.922</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>3367.9969999999998</v>
+      </c>
+      <c r="AI8" s="4"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1032,14 +1216,38 @@
         <v>70.494</v>
       </c>
       <c r="Y9" s="4">
+        <v>52.536999999999999</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>52.834000000000003</v>
+      </c>
+      <c r="AA9" s="4">
         <v>70.91</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="AB9" s="4">
+        <v>55.628999999999998</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>90.182000000000002</v>
+      </c>
+      <c r="AD9" s="4">
         <v>85.677000000000007</v>
       </c>
-      <c r="AA9" s="4"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE9" s="4">
+        <v>59.295999999999999</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>108.506</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>64.59</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>134.03899999999999</v>
+      </c>
+      <c r="AI9" s="4"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1081,14 +1289,38 @@
         <v>63.026000000000003</v>
       </c>
       <c r="Y10" s="4">
+        <v>78.212000000000003</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>77.114000000000004</v>
+      </c>
+      <c r="AA10" s="4">
         <v>63.873000000000005</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="AB10" s="4">
+        <v>97.492000000000004</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>60.337000000000003</v>
+      </c>
+      <c r="AD10" s="4">
         <v>79.061000000000007</v>
       </c>
-      <c r="AA10" s="4"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE10" s="4">
+        <v>35.195999999999998</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>92.972999999999999</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>105.28100000000001</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>74.451999999999998</v>
+      </c>
+      <c r="AI10" s="4"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1130,14 +1362,38 @@
         <v>4150.7039999999997</v>
       </c>
       <c r="Y11" s="4">
+        <v>4096.8490000000002</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>4942.3919999999998</v>
+      </c>
+      <c r="AA11" s="4">
         <v>4137.4989999999998</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AB11" s="4">
+        <v>4399.683</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>4337.1869999999999</v>
+      </c>
+      <c r="AD11" s="4">
         <v>4441.951</v>
       </c>
-      <c r="AA11" s="4"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE11" s="4">
+        <v>4356.857</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>4461.6400000000003</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>4151.2219999999998</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>4198.643</v>
+      </c>
+      <c r="AI11" s="4"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1161,8 +1417,16 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1204,14 +1468,38 @@
         <v>8638.7100000000009</v>
       </c>
       <c r="Y13" s="4">
+        <v>9634.1620000000003</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>10306.306</v>
+      </c>
+      <c r="AA13" s="4">
         <v>9849.5590000000011</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="AB13" s="4">
+        <v>10234.909</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>10493.764000000001</v>
+      </c>
+      <c r="AD13" s="4">
         <v>8511.5879999999997</v>
       </c>
-      <c r="AA13" s="4"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE13" s="4">
+        <v>9504.0679999999993</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>9857.4330000000009</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>9706.56</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>9988.0990000000002</v>
+      </c>
+      <c r="AI13" s="4"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1253,14 +1541,38 @@
         <v>2939.1080000000002</v>
       </c>
       <c r="Y14" s="4">
+        <v>3086.4810000000002</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>2892.16</v>
+      </c>
+      <c r="AA14" s="4">
         <v>2857.6460000000002</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AB14" s="4">
+        <v>2913.0790000000002</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>2837.36</v>
+      </c>
+      <c r="AD14" s="4">
         <v>2960.279</v>
       </c>
-      <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE14" s="4">
+        <v>3058.9659999999999</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>2992.6410000000001</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>2837.096</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>2857.4340000000002</v>
+      </c>
+      <c r="AI14" s="4"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1302,14 +1614,38 @@
         <v>1407.338</v>
       </c>
       <c r="Y15" s="4">
+        <v>1276.348</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>1327.2850000000001</v>
+      </c>
+      <c r="AA15" s="4">
         <v>1388.914</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="AB15" s="4">
+        <v>1495.44</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>1352.2090000000001</v>
+      </c>
+      <c r="AD15" s="4">
         <v>1418.33</v>
       </c>
-      <c r="AA15" s="4"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE15" s="4">
+        <v>1429.9970000000001</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>1363.4</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>1472.817</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>1519.3579999999999</v>
+      </c>
+      <c r="AI15" s="4"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1351,14 +1687,38 @@
         <v>465.154</v>
       </c>
       <c r="Y16" s="4">
+        <v>508.36400000000003</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>445.89699999999999</v>
+      </c>
+      <c r="AA16" s="4">
         <v>372.84199999999998</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="AB16" s="4">
+        <v>445.09500000000003</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>428.54300000000001</v>
+      </c>
+      <c r="AD16" s="4">
         <v>453.48900000000003</v>
       </c>
-      <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE16" s="4">
+        <v>494.27199999999999</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>368.20600000000002</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>448.822</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>480.45100000000002</v>
+      </c>
+      <c r="AI16" s="4"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1400,14 +1760,38 @@
         <v>617.64400000000001</v>
       </c>
       <c r="Y17" s="4">
+        <v>640.55799999999999</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>680.03600000000006</v>
+      </c>
+      <c r="AA17" s="4">
         <v>598.00700000000006</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="AB17" s="4">
+        <v>683.85800000000006</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>612.84299999999996</v>
+      </c>
+      <c r="AD17" s="4">
         <v>671.048</v>
       </c>
-      <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE17" s="4">
+        <v>607.77499999999998</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>615.822</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>592.98299999999995</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>564.91399999999999</v>
+      </c>
+      <c r="AI17" s="4"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1449,14 +1833,38 @@
         <v>196.208</v>
       </c>
       <c r="Y18" s="4">
+        <v>179.65100000000001</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>134.51900000000001</v>
+      </c>
+      <c r="AA18" s="4">
         <v>192.69900000000001</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="AB18" s="4">
+        <v>218.874</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>225.98400000000001</v>
+      </c>
+      <c r="AD18" s="4">
         <v>228.93</v>
       </c>
-      <c r="AA18" s="4"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE18" s="4">
+        <v>211.91200000000001</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>142.97200000000001</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>212.14500000000001</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>252.81899999999999</v>
+      </c>
+      <c r="AI18" s="4"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1498,14 +1906,38 @@
         <v>281.86799999999999</v>
       </c>
       <c r="Y19" s="4">
+        <v>274.72399999999999</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>267.40100000000001</v>
+      </c>
+      <c r="AA19" s="4">
         <v>269.346</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="AB19" s="4">
+        <v>224.33500000000001</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>243.011</v>
+      </c>
+      <c r="AD19" s="4">
         <v>435.3</v>
       </c>
-      <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE19" s="4">
+        <v>325.12700000000001</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>271.017</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>312.39699999999999</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>336.77499999999998</v>
+      </c>
+      <c r="AI19" s="4"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1547,14 +1979,38 @@
         <v>1764.1179999999999</v>
       </c>
       <c r="Y20" s="4">
+        <v>1644.932</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>1789.721</v>
+      </c>
+      <c r="AA20" s="4">
         <v>1728.547</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="AB20" s="4">
+        <v>1535.779</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>1817.393</v>
+      </c>
+      <c r="AD20" s="4">
         <v>1997.4190000000001</v>
       </c>
-      <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE20" s="4">
+        <v>1814.0889999999999</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>1903.578</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>1948.588</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>1932.703</v>
+      </c>
+      <c r="AI20" s="4"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1596,14 +2052,38 @@
         <v>2483.5940000000001</v>
       </c>
       <c r="Y21" s="4">
+        <v>2625.4230000000002</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>2643.9960000000001</v>
+      </c>
+      <c r="AA21" s="4">
         <v>2609.3049999999998</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="AB21" s="4">
+        <v>2892.5210000000002</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>2794.114</v>
+      </c>
+      <c r="AD21" s="4">
         <v>2612.3850000000002</v>
       </c>
-      <c r="AA21" s="4"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE21" s="4">
+        <v>2628.491</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>2746.7089999999998</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>2714.0459999999998</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>3006.29</v>
+      </c>
+      <c r="AI21" s="4"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1645,14 +2125,38 @@
         <v>1438.248</v>
       </c>
       <c r="Y22" s="4">
+        <v>1567.4780000000001</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>1319.5989999999999</v>
+      </c>
+      <c r="AA22" s="4">
         <v>1506.672</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="AB22" s="4">
+        <v>1497.348</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>1629.1210000000001</v>
+      </c>
+      <c r="AD22" s="4">
         <v>1415.0070000000001</v>
       </c>
-      <c r="AA22" s="4"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE22" s="4">
+        <v>1177.2059999999999</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>1292.6079999999999</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>1415.8050000000001</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>1560.8219999999999</v>
+      </c>
+      <c r="AI22" s="4"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1694,14 +2198,38 @@
         <v>633.274</v>
       </c>
       <c r="Y23" s="4">
+        <v>713.87200000000007</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>649.67500000000007</v>
+      </c>
+      <c r="AA23" s="4">
         <v>598.76800000000003</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="AB23" s="4">
+        <v>598.73300000000006</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>663.43299999999999</v>
+      </c>
+      <c r="AD23" s="4">
         <v>657.11500000000001</v>
       </c>
-      <c r="AA23" s="4"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE23" s="4">
+        <v>574.428</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>614.23699999999997</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>741.15700000000004</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>643.34100000000001</v>
+      </c>
+      <c r="AI23" s="4"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1743,14 +2271,38 @@
         <v>268.69799999999998</v>
       </c>
       <c r="Y24" s="4">
+        <v>287.75</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>330.56600000000003</v>
+      </c>
+      <c r="AA24" s="4">
         <v>266.928</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="AB24" s="4">
+        <v>336.36200000000002</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>318.28800000000001</v>
+      </c>
+      <c r="AD24" s="4">
         <v>318.89100000000002</v>
       </c>
-      <c r="AA24" s="4"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE24" s="4">
+        <v>334.95499999999998</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>385.14499999999998</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>330.84399999999999</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>433.00900000000001</v>
+      </c>
+      <c r="AI24" s="4"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1792,14 +2344,38 @@
         <v>2466.902</v>
       </c>
       <c r="Y25" s="4">
+        <v>2761.087</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>2611.846</v>
+      </c>
+      <c r="AA25" s="4">
         <v>2583.145</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="AB25" s="4">
+        <v>2790.5790000000002</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>2549.9610000000002</v>
+      </c>
+      <c r="AD25" s="4">
         <v>2454.3490000000002</v>
       </c>
-      <c r="AA25" s="4"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE25" s="4">
+        <v>2602.221</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>2623.9810000000002</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>2506.4</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>2829.0970000000002</v>
+      </c>
+      <c r="AI25" s="4"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1841,14 +2417,38 @@
         <v>1.4910000000000001</v>
       </c>
       <c r="Y26" s="4">
+        <v>2.2640000000000002</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="AA26" s="4">
         <v>2.3319999999999999</v>
       </c>
-      <c r="Z26" s="4">
+      <c r="AB26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="4">
         <v>3.9059999999999997</v>
       </c>
-      <c r="AA26" s="4"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AE26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>2.113</v>
+      </c>
+      <c r="AI26" s="4"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1910,8 +2510,16 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1945,8 +2553,16 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
@@ -2008,8 +2624,16 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -2071,8 +2695,16 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -2105,8 +2737,16 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -2168,8 +2808,16 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2231,8 +2879,16 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -2294,8 +2950,16 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
@@ -2357,8 +3021,16 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
@@ -2420,8 +3092,16 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -2455,8 +3135,16 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -2518,8 +3206,16 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -2581,8 +3277,16 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
@@ -2644,8 +3348,16 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -2707,8 +3419,16 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -2770,8 +3490,16 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
@@ -2833,8 +3561,16 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>17</v>
       </c>
@@ -2896,8 +3632,16 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
@@ -2959,8 +3703,16 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
@@ -3022,8 +3774,16 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>20</v>
       </c>
@@ -3085,8 +3845,16 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="4"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
@@ -3148,8 +3916,16 @@
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>22</v>
       </c>
@@ -3211,8 +3987,16 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>23</v>
       </c>
@@ -3274,8 +4058,16 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>24</v>
       </c>
@@ -3337,8 +4129,16 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
     </row>
   </sheetData>

--- a/Data/Labor and Employment/Labor by Sector.xlsx
+++ b/Data/Labor and Employment/Labor by Sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Labor and Employment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R-Projects\PH-Econ-Data\Data\Labor and Employment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A079A03B-0F9D-4BA2-A17E-5C601873B5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6340219-9E7F-403F-8DC8-4CF5C0682A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{ED0AE727-A742-4951-9735-66CBAC75CCC6}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{ED0AE727-A742-4951-9735-66CBAC75CCC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="75">
   <si>
     <t>ALL INDUSTRIES</t>
   </si>
@@ -220,6 +220,45 @@
   </si>
   <si>
     <t>2021Dec</t>
+  </si>
+  <si>
+    <t>2022Jan</t>
+  </si>
+  <si>
+    <t>2022Feb</t>
+  </si>
+  <si>
+    <t>2022Mar</t>
+  </si>
+  <si>
+    <t>2022Apr</t>
+  </si>
+  <si>
+    <t>2022May</t>
+  </si>
+  <si>
+    <t>2022Jun</t>
+  </si>
+  <si>
+    <t>2022Jul</t>
+  </si>
+  <si>
+    <t>2022Aug</t>
+  </si>
+  <si>
+    <t>2022Sep</t>
+  </si>
+  <si>
+    <t>2022Oct</t>
+  </si>
+  <si>
+    <t>2022Nov</t>
+  </si>
+  <si>
+    <t>2022Dec</t>
+  </si>
+  <si>
+    <t>2023Jan</t>
   </si>
 </sst>
 </file>
@@ -288,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -299,8 +338,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -617,31 +654,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421FD955-1561-48B3-95F5-2ACBFF6416AB}">
-  <dimension ref="A1:AI54"/>
+  <dimension ref="A1:AV54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI2" sqref="AI2"/>
+      <selection pane="bottomRight" activeCell="AW1" sqref="AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="35" width="10.7109375" customWidth="1"/>
+    <col min="2" max="48" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>53</v>
       </c>
       <c r="D1" t="s">
@@ -704,51 +739,90 @@
       <c r="W1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" t="s">
         <v>60</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
       <c r="AD1" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" t="s">
         <v>56</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" t="s">
         <v>55</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" t="s">
         <v>61</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="4"/>
@@ -767,7 +841,7 @@
       <c r="S2" s="4">
         <v>43143.565000000002</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="6">
         <v>42542.940999999999</v>
       </c>
       <c r="U2" s="4">
@@ -780,48 +854,89 @@
         <v>39836.563999999998</v>
       </c>
       <c r="X2" s="4">
-        <v>41247.771000000001</v>
+        <v>41247.728999999999</v>
       </c>
       <c r="Y2" s="4">
-        <v>43153.195</v>
+        <v>43153.470999999998</v>
       </c>
       <c r="Z2" s="4">
         <v>45331.550999999999</v>
       </c>
       <c r="AA2" s="4">
-        <v>43269.201000000001</v>
+        <v>43268.968999999997</v>
       </c>
       <c r="AB2" s="4">
-        <v>44715.87</v>
+        <v>44716.896999999997</v>
       </c>
       <c r="AC2" s="4">
-        <v>45075.442000000003</v>
+        <v>45075.633000000002</v>
       </c>
       <c r="AD2" s="4">
-        <v>41667.056000000004</v>
+        <v>41670.982000000004</v>
       </c>
       <c r="AE2" s="4">
-        <v>44233.788999999997</v>
+        <v>44231.042000000001</v>
       </c>
       <c r="AF2" s="4">
-        <v>43591.843000000001</v>
+        <v>43592.928</v>
       </c>
       <c r="AG2" s="4">
-        <v>43826.271999999997</v>
+        <v>43821.553999999996</v>
       </c>
       <c r="AH2" s="4">
-        <v>45477.428</v>
-      </c>
-      <c r="AI2" s="4"/>
+        <v>45474.286</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>46274.468999999997</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>43266.404000000002</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>45480.023999999998</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>46975.031000000003</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>45631.224999999999</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>46083.587</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>46591.561000000002</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>47391.497000000003</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>47869.89</v>
+      </c>
+      <c r="AR2" s="4">
+        <v>47582.792999999998</v>
+      </c>
+      <c r="AS2" s="4">
+        <v>47106.362999999998</v>
+      </c>
+      <c r="AT2" s="4">
+        <v>49705.981</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>49002.345999999998</v>
+      </c>
+      <c r="AV2" s="4">
+        <v>47351.565000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="4"/>
@@ -832,7 +947,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="8"/>
+      <c r="T3" s="6"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
@@ -848,15 +963,28 @@
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="4"/>
@@ -875,7 +1003,7 @@
       <c r="S4" s="4">
         <v>8803.0340000000015</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="6">
         <v>8459.1659999999993</v>
       </c>
       <c r="U4" s="4">
@@ -888,48 +1016,89 @@
         <v>8426.65</v>
       </c>
       <c r="X4" s="4">
-        <v>8923.5720000000001</v>
+        <v>8923.11</v>
       </c>
       <c r="Y4" s="4">
-        <v>9079.259</v>
+        <v>9079.5969999999998</v>
       </c>
       <c r="Z4" s="4">
         <v>9702.74</v>
       </c>
       <c r="AA4" s="4">
-        <v>9210.1319999999996</v>
+        <v>9210.2960000000003</v>
       </c>
       <c r="AB4" s="4">
-        <v>9494.2880000000005</v>
+        <v>9494.4830000000002</v>
       </c>
       <c r="AC4" s="4">
-        <v>9612.4089999999997</v>
+        <v>9613.8019999999997</v>
       </c>
       <c r="AD4" s="4">
-        <v>8069.4450000000006</v>
+        <v>7985.0559999999996</v>
       </c>
       <c r="AE4" s="4">
-        <v>9849.8359999999993</v>
+        <v>9846.7739999999994</v>
       </c>
       <c r="AF4" s="4">
-        <v>8987.5570000000007</v>
+        <v>8987.7540000000008</v>
       </c>
       <c r="AG4" s="4">
-        <v>9417.0429999999997</v>
+        <v>9416.1820000000007</v>
       </c>
       <c r="AH4" s="4">
-        <v>9453.5169999999998</v>
-      </c>
-      <c r="AI4" s="4"/>
+        <v>9453.31</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>10519.628000000001</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>8221.2540000000008</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>9622.4539999999997</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>10526.107</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>9461.6039999999994</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>8728.4079999999994</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>9992.5490000000009</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>9730.0419999999995</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>9706.3529999999992</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>9586.3979999999992</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>9218.8140000000003</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>9465.8739999999998</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>10294.584000000001</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>9181.1890000000003</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="4"/>
@@ -948,7 +1117,7 @@
       <c r="S5" s="4">
         <v>1318.329</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="6">
         <v>1165.731</v>
       </c>
       <c r="U5" s="4">
@@ -970,39 +1139,80 @@
         <v>1426.8810000000001</v>
       </c>
       <c r="AA5" s="4">
-        <v>1349.7470000000001</v>
+        <v>1349.7539999999999</v>
       </c>
       <c r="AB5" s="4">
-        <v>1131.694</v>
+        <v>1131.433</v>
       </c>
       <c r="AC5" s="4">
-        <v>1325.5609999999999</v>
+        <v>1325.548</v>
       </c>
       <c r="AD5" s="4">
-        <v>1118.2950000000001</v>
+        <v>1200.694</v>
       </c>
       <c r="AE5" s="4">
-        <v>1246.5419999999999</v>
+        <v>1237.6469999999999</v>
       </c>
       <c r="AF5" s="4">
-        <v>1259.1289999999999</v>
+        <v>1258.6179999999999</v>
       </c>
       <c r="AG5" s="4">
-        <v>1352.0329999999999</v>
+        <v>1351.5930000000001</v>
       </c>
       <c r="AH5" s="4">
-        <v>1706.5740000000001</v>
-      </c>
-      <c r="AI5" s="4"/>
+        <v>1706.6790000000001</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>1310.8969999999999</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>1176.4839999999999</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>1239.528</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>1312.82</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>1290.384</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>1394.5830000000001</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>1403.817</v>
+      </c>
+      <c r="AP5" s="4">
+        <v>1399.117</v>
+      </c>
+      <c r="AQ5" s="4">
+        <v>1113.211</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>1120.992</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>1385.711</v>
+      </c>
+      <c r="AT5" s="4">
+        <v>1174.6849999999999</v>
+      </c>
+      <c r="AU5" s="4">
+        <v>1465.963</v>
+      </c>
+      <c r="AV5" s="4">
+        <v>1334.259</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="4"/>
@@ -1013,7 +1223,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="9"/>
+      <c r="T6" s="7"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -1027,15 +1237,28 @@
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="4"/>
@@ -1054,7 +1277,7 @@
       <c r="S7" s="4">
         <v>167.62800000000004</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="6">
         <v>183.666</v>
       </c>
       <c r="U7" s="4">
@@ -1076,39 +1299,80 @@
         <v>169.25800000000001</v>
       </c>
       <c r="AA7" s="4">
-        <v>192.364</v>
+        <v>192.386</v>
       </c>
       <c r="AB7" s="4">
         <v>122.03</v>
       </c>
       <c r="AC7" s="4">
-        <v>181.27199999999999</v>
+        <v>181.274</v>
       </c>
       <c r="AD7" s="4">
-        <v>195.70099999999999</v>
+        <v>202.43100000000001</v>
       </c>
       <c r="AE7" s="4">
         <v>214.46600000000001</v>
       </c>
       <c r="AF7" s="4">
-        <v>139.273</v>
+        <v>139.32300000000001</v>
       </c>
       <c r="AG7" s="4">
-        <v>169.85900000000001</v>
+        <v>170.16900000000001</v>
       </c>
       <c r="AH7" s="4">
-        <v>134.982</v>
-      </c>
-      <c r="AI7" s="4"/>
+        <v>134.93600000000001</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>189.029</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>202.714</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>228.029</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>192.89599999999999</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>202.4</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>199.39</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>337.55900000000003</v>
+      </c>
+      <c r="AP7" s="4">
+        <v>192.71100000000001</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>257.97899999999998</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>207.48400000000001</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>237.29900000000001</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>233.203</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>170.482</v>
+      </c>
+      <c r="AV7" s="4">
+        <v>217.46899999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="4"/>
@@ -1127,7 +1391,7 @@
       <c r="S8" s="4">
         <v>3610.84</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="6">
         <v>3634.136</v>
       </c>
       <c r="U8" s="4">
@@ -1140,48 +1404,89 @@
         <v>3028.915</v>
       </c>
       <c r="X8" s="4">
-        <v>3139.578</v>
+        <v>3140.4479999999999</v>
       </c>
       <c r="Y8" s="4">
-        <v>3275.6959999999999</v>
+        <v>3280.098</v>
       </c>
       <c r="Z8" s="4">
-        <v>3560.4990000000003</v>
+        <v>3560.4989999999998</v>
       </c>
       <c r="AA8" s="4">
-        <v>3419.9670000000001</v>
+        <v>3419.99</v>
       </c>
       <c r="AB8" s="4">
-        <v>3548.1420000000003</v>
+        <v>3548.0590000000002</v>
       </c>
       <c r="AC8" s="4">
-        <v>3502.4679999999998</v>
+        <v>3502.2550000000001</v>
       </c>
       <c r="AD8" s="4">
-        <v>3538.89</v>
+        <v>3527.5479999999998</v>
       </c>
       <c r="AE8" s="4">
-        <v>3708.09</v>
+        <v>3720.5590000000002</v>
       </c>
       <c r="AF8" s="4">
-        <v>3365.0149999999999</v>
+        <v>3365.402</v>
       </c>
       <c r="AG8" s="4">
-        <v>3325.922</v>
+        <v>3321.39</v>
       </c>
       <c r="AH8" s="4">
-        <v>3367.9969999999998</v>
-      </c>
-      <c r="AI8" s="4"/>
+        <v>3360.134</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>3689.7260000000001</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>3641.0210000000002</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>3395.7840000000001</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>3606.5659999999998</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>3656.3629999999998</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>3746.0949999999998</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>3645.402</v>
+      </c>
+      <c r="AP8" s="4">
+        <v>3493.8490000000002</v>
+      </c>
+      <c r="AQ8" s="4">
+        <v>3672.143</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>4452.3590000000004</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>3667.4259999999999</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>4335.1480000000001</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>3750.0210000000002</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>3676.9409999999998</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="4"/>
@@ -1200,7 +1505,7 @@
       <c r="S9" s="4">
         <v>83.381</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="6">
         <v>107.941</v>
       </c>
       <c r="U9" s="4">
@@ -1222,39 +1527,80 @@
         <v>52.834000000000003</v>
       </c>
       <c r="AA9" s="4">
-        <v>70.91</v>
+        <v>70.887</v>
       </c>
       <c r="AB9" s="4">
-        <v>55.628999999999998</v>
+        <v>55.582999999999998</v>
       </c>
       <c r="AC9" s="4">
-        <v>90.182000000000002</v>
+        <v>90.123999999999995</v>
       </c>
       <c r="AD9" s="4">
-        <v>85.677000000000007</v>
+        <v>83.582999999999998</v>
       </c>
       <c r="AE9" s="4">
-        <v>59.295999999999999</v>
+        <v>59.305999999999997</v>
       </c>
       <c r="AF9" s="4">
-        <v>108.506</v>
+        <v>108.471</v>
       </c>
       <c r="AG9" s="4">
-        <v>64.59</v>
+        <v>64.594999999999999</v>
       </c>
       <c r="AH9" s="4">
-        <v>134.03899999999999</v>
-      </c>
-      <c r="AI9" s="4"/>
+        <v>134.04599999999999</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>67.668999999999997</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>81.644000000000005</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>69.242000000000004</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>94.751999999999995</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>102.45099999999999</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>93.638999999999996</v>
+      </c>
+      <c r="AO9" s="4">
+        <v>76.168000000000006</v>
+      </c>
+      <c r="AP9" s="4">
+        <v>97.682000000000002</v>
+      </c>
+      <c r="AQ9" s="4">
+        <v>117.358</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>62.585000000000001</v>
+      </c>
+      <c r="AS9" s="4">
+        <v>100.654</v>
+      </c>
+      <c r="AT9" s="4">
+        <v>152.18199999999999</v>
+      </c>
+      <c r="AU9" s="4">
+        <v>94.86</v>
+      </c>
+      <c r="AV9" s="4">
+        <v>101.89400000000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="4"/>
@@ -1273,7 +1619,7 @@
       <c r="S10" s="4">
         <v>56.019999999999996</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="6">
         <v>61.694999999999993</v>
       </c>
       <c r="U10" s="4">
@@ -1292,42 +1638,83 @@
         <v>78.212000000000003</v>
       </c>
       <c r="Z10" s="4">
-        <v>77.114000000000004</v>
+        <v>68.024000000000001</v>
       </c>
       <c r="AA10" s="4">
-        <v>63.873000000000005</v>
+        <v>63.881</v>
       </c>
       <c r="AB10" s="4">
-        <v>97.492000000000004</v>
+        <v>97.48</v>
       </c>
       <c r="AC10" s="4">
-        <v>60.337000000000003</v>
+        <v>53.869</v>
       </c>
       <c r="AD10" s="4">
-        <v>79.061000000000007</v>
+        <v>92.039000000000001</v>
       </c>
       <c r="AE10" s="4">
-        <v>35.195999999999998</v>
+        <v>35.215000000000003</v>
       </c>
       <c r="AF10" s="4">
-        <v>92.972999999999999</v>
+        <v>92.983999999999995</v>
       </c>
       <c r="AG10" s="4">
-        <v>105.28100000000001</v>
+        <v>105.24299999999999</v>
       </c>
       <c r="AH10" s="4">
-        <v>74.451999999999998</v>
-      </c>
-      <c r="AI10" s="4"/>
+        <v>74.347999999999999</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>72.382999999999996</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>93.013000000000005</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>47.771000000000001</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>74.983999999999995</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>69.587999999999994</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>116.95</v>
+      </c>
+      <c r="AO10" s="4">
+        <v>74.721000000000004</v>
+      </c>
+      <c r="AP10" s="4">
+        <v>80.891000000000005</v>
+      </c>
+      <c r="AQ10" s="4">
+        <v>57.305</v>
+      </c>
+      <c r="AR10" s="4">
+        <v>59.723999999999997</v>
+      </c>
+      <c r="AS10" s="4">
+        <v>52.874000000000002</v>
+      </c>
+      <c r="AT10" s="4">
+        <v>88.626999999999995</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>58.655999999999999</v>
+      </c>
+      <c r="AV10" s="4">
+        <v>59.05</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="4"/>
@@ -1346,7 +1733,7 @@
       <c r="S11" s="4">
         <v>4221.9530000000004</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="6">
         <v>4001.415</v>
       </c>
       <c r="U11" s="4">
@@ -1365,42 +1752,83 @@
         <v>4096.8490000000002</v>
       </c>
       <c r="Z11" s="4">
-        <v>4942.3919999999998</v>
+        <v>4951.482</v>
       </c>
       <c r="AA11" s="4">
-        <v>4137.4989999999998</v>
+        <v>4137.4049999999997</v>
       </c>
       <c r="AB11" s="4">
-        <v>4399.683</v>
+        <v>4400.1099999999997</v>
       </c>
       <c r="AC11" s="4">
-        <v>4337.1869999999999</v>
+        <v>4336.83</v>
       </c>
       <c r="AD11" s="4">
-        <v>4441.951</v>
+        <v>4386.0259999999998</v>
       </c>
       <c r="AE11" s="4">
-        <v>4356.857</v>
+        <v>4344.8540000000003</v>
       </c>
       <c r="AF11" s="4">
-        <v>4461.6400000000003</v>
+        <v>4460.643</v>
       </c>
       <c r="AG11" s="4">
-        <v>4151.2219999999998</v>
+        <v>4150.9470000000001</v>
       </c>
       <c r="AH11" s="4">
-        <v>4198.643</v>
-      </c>
-      <c r="AI11" s="4"/>
+        <v>4199.33</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>4214.7219999999998</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>4352.3090000000002</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>4397.598</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>4197.5990000000002</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>4385.9660000000003</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>4617.616</v>
+      </c>
+      <c r="AO11" s="4">
+        <v>4722.6390000000001</v>
+      </c>
+      <c r="AP11" s="4">
+        <v>4522.5640000000003</v>
+      </c>
+      <c r="AQ11" s="4">
+        <v>4264.2280000000001</v>
+      </c>
+      <c r="AR11" s="4">
+        <v>4066.9549999999999</v>
+      </c>
+      <c r="AS11" s="4">
+        <v>4577.0609999999997</v>
+      </c>
+      <c r="AT11" s="4">
+        <v>4168.866</v>
+      </c>
+      <c r="AU11" s="4">
+        <v>4306.5259999999998</v>
+      </c>
+      <c r="AV11" s="4">
+        <v>4018.0749999999998</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="4"/>
@@ -1411,7 +1839,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="9"/>
+      <c r="T12" s="7"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -1425,15 +1853,28 @@
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="4"/>
@@ -1452,7 +1893,7 @@
       <c r="S13" s="4">
         <v>8545.5480000000007</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="6">
         <v>8590.3919999999998</v>
       </c>
       <c r="U13" s="4">
@@ -1465,48 +1906,89 @@
         <v>8383.621000000001</v>
       </c>
       <c r="X13" s="4">
-        <v>8638.7100000000009</v>
+        <v>8639.1679999999997</v>
       </c>
       <c r="Y13" s="4">
-        <v>9634.1620000000003</v>
+        <v>9629.259</v>
       </c>
       <c r="Z13" s="4">
         <v>10306.306</v>
       </c>
       <c r="AA13" s="4">
-        <v>9849.5590000000011</v>
+        <v>9849.5730000000003</v>
       </c>
       <c r="AB13" s="4">
-        <v>10234.909</v>
+        <v>10234.302</v>
       </c>
       <c r="AC13" s="4">
-        <v>10493.764000000001</v>
+        <v>10512.050999999999</v>
       </c>
       <c r="AD13" s="4">
-        <v>8511.5879999999997</v>
+        <v>8524.402</v>
       </c>
       <c r="AE13" s="4">
-        <v>9504.0679999999993</v>
+        <v>9502.9089999999997</v>
       </c>
       <c r="AF13" s="4">
-        <v>9857.4330000000009</v>
+        <v>9856.9459999999999</v>
       </c>
       <c r="AG13" s="4">
-        <v>9706.56</v>
+        <v>9703.991</v>
       </c>
       <c r="AH13" s="4">
-        <v>9988.0990000000002</v>
-      </c>
-      <c r="AI13" s="4"/>
+        <v>10005.795</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>9937.8060000000005</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>9028.8209999999999</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>10074.627</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>10067.454</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>9825.2520000000004</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>10941.808000000001</v>
+      </c>
+      <c r="AO13" s="4">
+        <v>9724.4169999999995</v>
+      </c>
+      <c r="AP13" s="4">
+        <v>10665.49</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>11043.628000000001</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>10708.948</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>10376.392</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>11317.853999999999</v>
+      </c>
+      <c r="AU13" s="4">
+        <v>10930.358</v>
+      </c>
+      <c r="AV13" s="4">
+        <v>10555.004000000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="4"/>
@@ -1525,7 +2007,7 @@
       <c r="S14" s="4">
         <v>3500.7949999999996</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="6">
         <v>3398.1909999999998</v>
       </c>
       <c r="U14" s="4">
@@ -1547,39 +2029,80 @@
         <v>2892.16</v>
       </c>
       <c r="AA14" s="4">
-        <v>2857.6460000000002</v>
+        <v>2857.7759999999998</v>
       </c>
       <c r="AB14" s="4">
-        <v>2913.0790000000002</v>
+        <v>2913.3220000000001</v>
       </c>
       <c r="AC14" s="4">
-        <v>2837.36</v>
+        <v>2837.721</v>
       </c>
       <c r="AD14" s="4">
-        <v>2960.279</v>
+        <v>2966.0309999999999</v>
       </c>
       <c r="AE14" s="4">
-        <v>3058.9659999999999</v>
+        <v>3057.6060000000002</v>
       </c>
       <c r="AF14" s="4">
-        <v>2992.6410000000001</v>
+        <v>2992.9609999999998</v>
       </c>
       <c r="AG14" s="4">
-        <v>2837.096</v>
+        <v>2836.6709999999998</v>
       </c>
       <c r="AH14" s="4">
-        <v>2857.4340000000002</v>
-      </c>
-      <c r="AI14" s="4"/>
+        <v>2859.2550000000001</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>3027.1120000000001</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>3180.6640000000002</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>3134.576</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>3059.1260000000002</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>3146.9690000000001</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>3216.645</v>
+      </c>
+      <c r="AO14" s="4">
+        <v>3126.9430000000002</v>
+      </c>
+      <c r="AP14" s="4">
+        <v>3150.49</v>
+      </c>
+      <c r="AQ14" s="4">
+        <v>3406.6289999999999</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>3462.4789999999998</v>
+      </c>
+      <c r="AS14" s="4">
+        <v>3389.2469999999998</v>
+      </c>
+      <c r="AT14" s="4">
+        <v>3349.8409999999999</v>
+      </c>
+      <c r="AU14" s="4">
+        <v>3301.806</v>
+      </c>
+      <c r="AV14" s="4">
+        <v>3483.9490000000001</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="4"/>
@@ -1598,7 +2121,7 @@
       <c r="S15" s="4">
         <v>1999.104</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="6">
         <v>2013.471</v>
       </c>
       <c r="U15" s="4">
@@ -1611,48 +2134,89 @@
         <v>1343.106</v>
       </c>
       <c r="X15" s="4">
-        <v>1407.338</v>
+        <v>1406.451</v>
       </c>
       <c r="Y15" s="4">
-        <v>1276.348</v>
+        <v>1291.056</v>
       </c>
       <c r="Z15" s="4">
         <v>1327.2850000000001</v>
       </c>
       <c r="AA15" s="4">
-        <v>1388.914</v>
+        <v>1388.662</v>
       </c>
       <c r="AB15" s="4">
-        <v>1495.44</v>
+        <v>1495.65</v>
       </c>
       <c r="AC15" s="4">
-        <v>1352.2090000000001</v>
+        <v>1352.1410000000001</v>
       </c>
       <c r="AD15" s="4">
-        <v>1418.33</v>
+        <v>1404.461</v>
       </c>
       <c r="AE15" s="4">
-        <v>1429.9970000000001</v>
+        <v>1429.4639999999999</v>
       </c>
       <c r="AF15" s="4">
-        <v>1363.4</v>
+        <v>1364.2470000000001</v>
       </c>
       <c r="AG15" s="4">
-        <v>1472.817</v>
+        <v>1472.681</v>
       </c>
       <c r="AH15" s="4">
-        <v>1519.3579999999999</v>
-      </c>
-      <c r="AI15" s="4"/>
+        <v>1510.385</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>1550.221</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>1537.095</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>1665.9459999999999</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>1558.8130000000001</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>1731.9659999999999</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>1765.62</v>
+      </c>
+      <c r="AO15" s="4">
+        <v>1674.921</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>1902.271</v>
+      </c>
+      <c r="AQ15" s="4">
+        <v>1908.752</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>1846.423</v>
+      </c>
+      <c r="AS15" s="4">
+        <v>1879.548</v>
+      </c>
+      <c r="AT15" s="4">
+        <v>2260.0790000000002</v>
+      </c>
+      <c r="AU15" s="4">
+        <v>2019.739</v>
+      </c>
+      <c r="AV15" s="4">
+        <v>2086.2959999999998</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="4"/>
@@ -1671,7 +2235,7 @@
       <c r="S16" s="4">
         <v>423.50600000000003</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="6">
         <v>372.06699999999995</v>
       </c>
       <c r="U16" s="4">
@@ -1684,48 +2248,89 @@
         <v>453.161</v>
       </c>
       <c r="X16" s="4">
-        <v>465.154</v>
+        <v>464.22500000000002</v>
       </c>
       <c r="Y16" s="4">
-        <v>508.36400000000003</v>
+        <v>508.36399999999998</v>
       </c>
       <c r="Z16" s="4">
         <v>445.89699999999999</v>
       </c>
       <c r="AA16" s="4">
-        <v>372.84199999999998</v>
+        <v>372.83</v>
       </c>
       <c r="AB16" s="4">
-        <v>445.09500000000003</v>
+        <v>444.899</v>
       </c>
       <c r="AC16" s="4">
-        <v>428.54300000000001</v>
+        <v>428.625</v>
       </c>
       <c r="AD16" s="4">
-        <v>453.48900000000003</v>
+        <v>478.32799999999997</v>
       </c>
       <c r="AE16" s="4">
-        <v>494.27199999999999</v>
+        <v>497.14100000000002</v>
       </c>
       <c r="AF16" s="4">
-        <v>368.20600000000002</v>
+        <v>369.29199999999997</v>
       </c>
       <c r="AG16" s="4">
-        <v>448.822</v>
+        <v>449.88499999999999</v>
       </c>
       <c r="AH16" s="4">
-        <v>480.45100000000002</v>
-      </c>
-      <c r="AI16" s="4"/>
+        <v>480.17200000000003</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>396.077</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>494.86500000000001</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>532.73299999999995</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>504.32400000000001</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>431.97</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>441.73</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>430.36</v>
+      </c>
+      <c r="AP16" s="4">
+        <v>424.11599999999999</v>
+      </c>
+      <c r="AQ16" s="4">
+        <v>484.80599999999998</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>481.84899999999999</v>
+      </c>
+      <c r="AS16" s="4">
+        <v>476.75900000000001</v>
+      </c>
+      <c r="AT16" s="4">
+        <v>628.15899999999999</v>
+      </c>
+      <c r="AU16" s="4">
+        <v>474.81900000000002</v>
+      </c>
+      <c r="AV16" s="4">
+        <v>556.15200000000004</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="4"/>
@@ -1744,7 +2349,7 @@
       <c r="S17" s="4">
         <v>641.00200000000007</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="6">
         <v>626.44899999999996</v>
       </c>
       <c r="U17" s="4">
@@ -1757,48 +2362,89 @@
         <v>600.98800000000006</v>
       </c>
       <c r="X17" s="4">
-        <v>617.64400000000001</v>
+        <v>617.64300000000003</v>
       </c>
       <c r="Y17" s="4">
         <v>640.55799999999999</v>
       </c>
       <c r="Z17" s="4">
-        <v>680.03600000000006</v>
+        <v>680.03599999999994</v>
       </c>
       <c r="AA17" s="4">
-        <v>598.00700000000006</v>
+        <v>597.79600000000005</v>
       </c>
       <c r="AB17" s="4">
-        <v>683.85800000000006</v>
+        <v>683.66200000000003</v>
       </c>
       <c r="AC17" s="4">
-        <v>612.84299999999996</v>
+        <v>612.61</v>
       </c>
       <c r="AD17" s="4">
-        <v>671.048</v>
+        <v>632.58900000000006</v>
       </c>
       <c r="AE17" s="4">
-        <v>607.77499999999998</v>
+        <v>607.01199999999994</v>
       </c>
       <c r="AF17" s="4">
-        <v>615.822</v>
+        <v>615.79</v>
       </c>
       <c r="AG17" s="4">
-        <v>592.98299999999995</v>
+        <v>592.24599999999998</v>
       </c>
       <c r="AH17" s="4">
-        <v>564.91399999999999</v>
-      </c>
-      <c r="AI17" s="4"/>
+        <v>564.726</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>591.94600000000003</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>622.78800000000001</v>
+      </c>
+      <c r="AK17" s="4">
+        <v>563.45799999999997</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>743.93100000000004</v>
+      </c>
+      <c r="AM17" s="4">
+        <v>600.94899999999996</v>
+      </c>
+      <c r="AN17" s="4">
+        <v>576.82600000000002</v>
+      </c>
+      <c r="AO17" s="4">
+        <v>522.06799999999998</v>
+      </c>
+      <c r="AP17" s="4">
+        <v>641.21199999999999</v>
+      </c>
+      <c r="AQ17" s="4">
+        <v>723.89200000000005</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>697.04899999999998</v>
+      </c>
+      <c r="AS17" s="4">
+        <v>654.35799999999995</v>
+      </c>
+      <c r="AT17" s="4">
+        <v>706.66899999999998</v>
+      </c>
+      <c r="AU17" s="4">
+        <v>689.74</v>
+      </c>
+      <c r="AV17" s="4">
+        <v>647.64700000000005</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="4"/>
@@ -1817,7 +2463,7 @@
       <c r="S18" s="4">
         <v>233.03900000000002</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="6">
         <v>210.37100000000001</v>
       </c>
       <c r="U18" s="4">
@@ -1830,7 +2476,7 @@
         <v>177.017</v>
       </c>
       <c r="X18" s="4">
-        <v>196.208</v>
+        <v>196.20699999999999</v>
       </c>
       <c r="Y18" s="4">
         <v>179.65100000000001</v>
@@ -1839,39 +2485,80 @@
         <v>134.51900000000001</v>
       </c>
       <c r="AA18" s="4">
-        <v>192.69900000000001</v>
+        <v>192.77600000000001</v>
       </c>
       <c r="AB18" s="4">
-        <v>218.874</v>
+        <v>219.065</v>
       </c>
       <c r="AC18" s="4">
-        <v>225.98400000000001</v>
+        <v>226.37799999999999</v>
       </c>
       <c r="AD18" s="4">
-        <v>228.93</v>
+        <v>197.53299999999999</v>
       </c>
       <c r="AE18" s="4">
-        <v>211.91200000000001</v>
+        <v>213.131</v>
       </c>
       <c r="AF18" s="4">
-        <v>142.97200000000001</v>
+        <v>143.041</v>
       </c>
       <c r="AG18" s="4">
-        <v>212.14500000000001</v>
+        <v>212.15100000000001</v>
       </c>
       <c r="AH18" s="4">
-        <v>252.81899999999999</v>
-      </c>
-      <c r="AI18" s="4"/>
+        <v>252.56899999999999</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>280.76499999999999</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>193.75800000000001</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>249.309</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>260.44600000000003</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>229.97399999999999</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>190.63800000000001</v>
+      </c>
+      <c r="AO18" s="4">
+        <v>194.041</v>
+      </c>
+      <c r="AP18" s="4">
+        <v>261.04899999999998</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>223.73</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>236.673</v>
+      </c>
+      <c r="AS18" s="4">
+        <v>230.148</v>
+      </c>
+      <c r="AT18" s="4">
+        <v>377.96</v>
+      </c>
+      <c r="AU18" s="4">
+        <v>210.24100000000001</v>
+      </c>
+      <c r="AV18" s="4">
+        <v>303.315</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="4"/>
@@ -1890,7 +2577,7 @@
       <c r="S19" s="4">
         <v>305.14</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="6">
         <v>270.476</v>
       </c>
       <c r="U19" s="4">
@@ -1903,7 +2590,7 @@
         <v>288.72000000000003</v>
       </c>
       <c r="X19" s="4">
-        <v>281.86799999999999</v>
+        <v>281.86599999999999</v>
       </c>
       <c r="Y19" s="4">
         <v>274.72399999999999</v>
@@ -1912,39 +2599,80 @@
         <v>267.40100000000001</v>
       </c>
       <c r="AA19" s="4">
-        <v>269.346</v>
+        <v>269.34399999999999</v>
       </c>
       <c r="AB19" s="4">
-        <v>224.33500000000001</v>
+        <v>224.316</v>
       </c>
       <c r="AC19" s="4">
-        <v>243.011</v>
+        <v>237.001</v>
       </c>
       <c r="AD19" s="4">
-        <v>435.3</v>
+        <v>430.66399999999999</v>
       </c>
       <c r="AE19" s="4">
-        <v>325.12700000000001</v>
+        <v>327.15499999999997</v>
       </c>
       <c r="AF19" s="4">
-        <v>271.017</v>
+        <v>268.22500000000002</v>
       </c>
       <c r="AG19" s="4">
-        <v>312.39699999999999</v>
+        <v>312.952</v>
       </c>
       <c r="AH19" s="4">
-        <v>336.77499999999998</v>
-      </c>
-      <c r="AI19" s="4"/>
+        <v>336.82499999999999</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>325.678</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>392.45600000000002</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>353.73500000000001</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>286.31799999999998</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>332.27499999999998</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>280.97800000000001</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>350.66</v>
+      </c>
+      <c r="AP19" s="4">
+        <v>337.90600000000001</v>
+      </c>
+      <c r="AQ19" s="4">
+        <v>419.44499999999999</v>
+      </c>
+      <c r="AR19" s="4">
+        <v>363.88</v>
+      </c>
+      <c r="AS19" s="4">
+        <v>326.108</v>
+      </c>
+      <c r="AT19" s="4">
+        <v>399.09699999999998</v>
+      </c>
+      <c r="AU19" s="4">
+        <v>294.041</v>
+      </c>
+      <c r="AV19" s="4">
+        <v>373.27100000000002</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="4"/>
@@ -1963,7 +2691,7 @@
       <c r="S20" s="4">
         <v>1657.567</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="6">
         <v>1664.4279999999999</v>
       </c>
       <c r="U20" s="4">
@@ -1976,48 +2704,89 @@
         <v>1733.5240000000001</v>
       </c>
       <c r="X20" s="4">
-        <v>1764.1179999999999</v>
+        <v>1764.8989999999999</v>
       </c>
       <c r="Y20" s="4">
-        <v>1644.932</v>
+        <v>1651.259</v>
       </c>
       <c r="Z20" s="4">
         <v>1789.721</v>
       </c>
       <c r="AA20" s="4">
-        <v>1728.547</v>
+        <v>1728.2919999999999</v>
       </c>
       <c r="AB20" s="4">
-        <v>1535.779</v>
+        <v>1535.7750000000001</v>
       </c>
       <c r="AC20" s="4">
-        <v>1817.393</v>
+        <v>1808.787</v>
       </c>
       <c r="AD20" s="4">
-        <v>1997.4190000000001</v>
+        <v>2043.8579999999999</v>
       </c>
       <c r="AE20" s="4">
-        <v>1814.0889999999999</v>
+        <v>1811.7550000000001</v>
       </c>
       <c r="AF20" s="4">
-        <v>1903.578</v>
+        <v>1904.0519999999999</v>
       </c>
       <c r="AG20" s="4">
-        <v>1948.588</v>
+        <v>1949.8240000000001</v>
       </c>
       <c r="AH20" s="4">
-        <v>1932.703</v>
-      </c>
-      <c r="AI20" s="4"/>
+        <v>1932.123</v>
+      </c>
+      <c r="AI20" s="4">
+        <v>2051.9830000000002</v>
+      </c>
+      <c r="AJ20" s="4">
+        <v>2184.011</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>1914.2529999999999</v>
+      </c>
+      <c r="AL20" s="4">
+        <v>2236.377</v>
+      </c>
+      <c r="AM20" s="4">
+        <v>2076.8389999999999</v>
+      </c>
+      <c r="AN20" s="4">
+        <v>2068.7559999999999</v>
+      </c>
+      <c r="AO20" s="4">
+        <v>2174.86</v>
+      </c>
+      <c r="AP20" s="4">
+        <v>2213.7849999999999</v>
+      </c>
+      <c r="AQ20" s="4">
+        <v>2228.1210000000001</v>
+      </c>
+      <c r="AR20" s="4">
+        <v>1939.03</v>
+      </c>
+      <c r="AS20" s="4">
+        <v>2315.674</v>
+      </c>
+      <c r="AT20" s="4">
+        <v>2307.8049999999998</v>
+      </c>
+      <c r="AU20" s="4">
+        <v>2564.5810000000001</v>
+      </c>
+      <c r="AV20" s="4">
+        <v>2349.5419999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="4"/>
@@ -2036,7 +2805,7 @@
       <c r="S21" s="4">
         <v>2814.8920000000003</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="6">
         <v>2786.2560000000003</v>
       </c>
       <c r="U21" s="4">
@@ -2049,48 +2818,89 @@
         <v>2427.3200000000006</v>
       </c>
       <c r="X21" s="4">
-        <v>2483.5940000000001</v>
+        <v>2482.85</v>
       </c>
       <c r="Y21" s="4">
-        <v>2625.4230000000002</v>
+        <v>2625.4229999999998</v>
       </c>
       <c r="Z21" s="4">
         <v>2643.9960000000001</v>
       </c>
       <c r="AA21" s="4">
-        <v>2609.3049999999998</v>
+        <v>2609.61</v>
       </c>
       <c r="AB21" s="4">
-        <v>2892.5210000000002</v>
+        <v>2892.9270000000001</v>
       </c>
       <c r="AC21" s="4">
-        <v>2794.114</v>
+        <v>2794.3589999999999</v>
       </c>
       <c r="AD21" s="4">
-        <v>2612.3850000000002</v>
+        <v>2679.4789999999998</v>
       </c>
       <c r="AE21" s="4">
-        <v>2628.491</v>
+        <v>2629.7460000000001</v>
       </c>
       <c r="AF21" s="4">
-        <v>2746.7089999999998</v>
+        <v>2746.2339999999999</v>
       </c>
       <c r="AG21" s="4">
-        <v>2714.0459999999998</v>
+        <v>2714.3609999999999</v>
       </c>
       <c r="AH21" s="4">
-        <v>3006.29</v>
-      </c>
-      <c r="AI21" s="4"/>
+        <v>3006.145</v>
+      </c>
+      <c r="AI21" s="4">
+        <v>2926.5549999999998</v>
+      </c>
+      <c r="AJ21" s="4">
+        <v>2732.5990000000002</v>
+      </c>
+      <c r="AK21" s="4">
+        <v>2820.4229999999998</v>
+      </c>
+      <c r="AL21" s="4">
+        <v>3033.471</v>
+      </c>
+      <c r="AM21" s="4">
+        <v>2758.422</v>
+      </c>
+      <c r="AN21" s="4">
+        <v>2599.864</v>
+      </c>
+      <c r="AO21" s="4">
+        <v>2763.8139999999999</v>
+      </c>
+      <c r="AP21" s="4">
+        <v>2885.7629999999999</v>
+      </c>
+      <c r="AQ21" s="4">
+        <v>2911.453</v>
+      </c>
+      <c r="AR21" s="4">
+        <v>3039.38</v>
+      </c>
+      <c r="AS21" s="4">
+        <v>2763.616</v>
+      </c>
+      <c r="AT21" s="4">
+        <v>2966.6280000000002</v>
+      </c>
+      <c r="AU21" s="4">
+        <v>2838.6289999999999</v>
+      </c>
+      <c r="AV21" s="4">
+        <v>2888.4760000000001</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="4"/>
@@ -2109,7 +2919,7 @@
       <c r="S22" s="4">
         <v>1406.9059999999997</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="6">
         <v>1348.9859999999999</v>
       </c>
       <c r="U22" s="4">
@@ -2122,48 +2932,89 @@
         <v>1461.306</v>
       </c>
       <c r="X22" s="4">
-        <v>1438.248</v>
+        <v>1439.3989999999999</v>
       </c>
       <c r="Y22" s="4">
-        <v>1567.4780000000001</v>
+        <v>1565.7349999999999</v>
       </c>
       <c r="Z22" s="4">
         <v>1319.5989999999999</v>
       </c>
       <c r="AA22" s="4">
-        <v>1506.672</v>
+        <v>1506.5989999999999</v>
       </c>
       <c r="AB22" s="4">
-        <v>1497.348</v>
+        <v>1497.79</v>
       </c>
       <c r="AC22" s="4">
-        <v>1629.1210000000001</v>
+        <v>1629.046</v>
       </c>
       <c r="AD22" s="4">
-        <v>1415.0070000000001</v>
+        <v>1361.7739999999999</v>
       </c>
       <c r="AE22" s="4">
-        <v>1177.2059999999999</v>
+        <v>1177.029</v>
       </c>
       <c r="AF22" s="4">
-        <v>1292.6079999999999</v>
+        <v>1292.56</v>
       </c>
       <c r="AG22" s="4">
-        <v>1415.8050000000001</v>
+        <v>1416.6510000000001</v>
       </c>
       <c r="AH22" s="4">
-        <v>1560.8219999999999</v>
-      </c>
-      <c r="AI22" s="4"/>
+        <v>1557.943</v>
+      </c>
+      <c r="AI22" s="4">
+        <v>1344.1679999999999</v>
+      </c>
+      <c r="AJ22" s="4">
+        <v>1430.296</v>
+      </c>
+      <c r="AK22" s="4">
+        <v>1442.076</v>
+      </c>
+      <c r="AL22" s="4">
+        <v>1372.6579999999999</v>
+      </c>
+      <c r="AM22" s="4">
+        <v>1451.37</v>
+      </c>
+      <c r="AN22" s="4">
+        <v>1356.2380000000001</v>
+      </c>
+      <c r="AO22" s="4">
+        <v>1497.2329999999999</v>
+      </c>
+      <c r="AP22" s="4">
+        <v>1389.0250000000001</v>
+      </c>
+      <c r="AQ22" s="4">
+        <v>1465.1890000000001</v>
+      </c>
+      <c r="AR22" s="4">
+        <v>1624.4649999999999</v>
+      </c>
+      <c r="AS22" s="4">
+        <v>1496.663</v>
+      </c>
+      <c r="AT22" s="4">
+        <v>1513.3119999999999</v>
+      </c>
+      <c r="AU22" s="4">
+        <v>1529.807</v>
+      </c>
+      <c r="AV22" s="4">
+        <v>1554.89</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="4"/>
@@ -2182,7 +3033,7 @@
       <c r="S23" s="4">
         <v>591.37100000000009</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="6">
         <v>566.03099999999995</v>
       </c>
       <c r="U23" s="4">
@@ -2195,48 +3046,89 @@
         <v>599.197</v>
       </c>
       <c r="X23" s="4">
-        <v>633.274</v>
+        <v>632.33799999999997</v>
       </c>
       <c r="Y23" s="4">
-        <v>713.87200000000007</v>
+        <v>715.61400000000003</v>
       </c>
       <c r="Z23" s="4">
-        <v>649.67500000000007</v>
+        <v>649.67499999999995</v>
       </c>
       <c r="AA23" s="4">
-        <v>598.76800000000003</v>
+        <v>598.62300000000005</v>
       </c>
       <c r="AB23" s="4">
-        <v>598.73300000000006</v>
+        <v>598.81399999999996</v>
       </c>
       <c r="AC23" s="4">
-        <v>663.43299999999999</v>
+        <v>664.39599999999996</v>
       </c>
       <c r="AD23" s="4">
-        <v>657.11500000000001</v>
+        <v>670.02599999999995</v>
       </c>
       <c r="AE23" s="4">
-        <v>574.428</v>
+        <v>564.71699999999998</v>
       </c>
       <c r="AF23" s="4">
-        <v>614.23699999999997</v>
+        <v>614.04399999999998</v>
       </c>
       <c r="AG23" s="4">
-        <v>741.15700000000004</v>
+        <v>738.55600000000004</v>
       </c>
       <c r="AH23" s="4">
-        <v>643.34100000000001</v>
-      </c>
-      <c r="AI23" s="4"/>
+        <v>643.18399999999997</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>808.33600000000001</v>
+      </c>
+      <c r="AJ23" s="4">
+        <v>664.76900000000001</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>765.63099999999997</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>701.875</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>710.84100000000001</v>
+      </c>
+      <c r="AN23" s="4">
+        <v>690.85299999999995</v>
+      </c>
+      <c r="AO23" s="4">
+        <v>671.82100000000003</v>
+      </c>
+      <c r="AP23" s="4">
+        <v>686.67600000000004</v>
+      </c>
+      <c r="AQ23" s="4">
+        <v>649.27200000000005</v>
+      </c>
+      <c r="AR23" s="4">
+        <v>601.96799999999996</v>
+      </c>
+      <c r="AS23" s="4">
+        <v>684.51800000000003</v>
+      </c>
+      <c r="AT23" s="4">
+        <v>741.25300000000004</v>
+      </c>
+      <c r="AU23" s="4">
+        <v>502.59399999999999</v>
+      </c>
+      <c r="AV23" s="4">
+        <v>687.11099999999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="4"/>
@@ -2255,7 +3147,7 @@
       <c r="S24">
         <v>341.62799999999999</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="6">
         <v>394.25899999999996</v>
       </c>
       <c r="U24" s="4">
@@ -2268,48 +3160,89 @@
         <v>213.77800000000005</v>
       </c>
       <c r="X24" s="4">
-        <v>268.69799999999998</v>
+        <v>268.697</v>
       </c>
       <c r="Y24" s="4">
-        <v>287.75</v>
+        <v>273.03399999999999</v>
       </c>
       <c r="Z24" s="4">
-        <v>330.56600000000003</v>
+        <v>330.56599999999997</v>
       </c>
       <c r="AA24" s="4">
-        <v>266.928</v>
+        <v>266.94200000000001</v>
       </c>
       <c r="AB24" s="4">
-        <v>336.36200000000002</v>
+        <v>336.24799999999999</v>
       </c>
       <c r="AC24" s="4">
-        <v>318.28800000000001</v>
+        <v>318.387</v>
       </c>
       <c r="AD24" s="4">
-        <v>318.89100000000002</v>
+        <v>318.36700000000002</v>
       </c>
       <c r="AE24" s="4">
-        <v>334.95499999999998</v>
+        <v>344.10700000000003</v>
       </c>
       <c r="AF24" s="4">
-        <v>385.14499999999998</v>
+        <v>387.80099999999999</v>
       </c>
       <c r="AG24" s="4">
-        <v>330.84399999999999</v>
+        <v>331.66</v>
       </c>
       <c r="AH24" s="4">
-        <v>433.00900000000001</v>
-      </c>
-      <c r="AI24" s="4"/>
+        <v>433.01900000000001</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>429.74900000000002</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>389.65</v>
+      </c>
+      <c r="AK24" s="4">
+        <v>338.68400000000003</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>455.55900000000003</v>
+      </c>
+      <c r="AM24" s="4">
+        <v>458.01299999999998</v>
+      </c>
+      <c r="AN24" s="4">
+        <v>348.63400000000001</v>
+      </c>
+      <c r="AO24" s="4">
+        <v>369.423</v>
+      </c>
+      <c r="AP24" s="4">
+        <v>477.084</v>
+      </c>
+      <c r="AQ24" s="4">
+        <v>412.94099999999997</v>
+      </c>
+      <c r="AR24" s="4">
+        <v>307.75</v>
+      </c>
+      <c r="AS24" s="4">
+        <v>424.85199999999998</v>
+      </c>
+      <c r="AT24" s="4">
+        <v>538.84500000000003</v>
+      </c>
+      <c r="AU24" s="4">
+        <v>401.91399999999999</v>
+      </c>
+      <c r="AV24" s="4">
+        <v>426.49599999999998</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="4"/>
@@ -2328,7 +3261,7 @@
       <c r="S25">
         <v>2420.723</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25" s="6">
         <v>2685.6680000000001</v>
       </c>
       <c r="U25" s="4">
@@ -2341,48 +3274,89 @@
         <v>2267.8180000000002</v>
       </c>
       <c r="X25" s="4">
-        <v>2466.902</v>
+        <v>2467.5650000000001</v>
       </c>
       <c r="Y25" s="4">
-        <v>2761.087</v>
+        <v>2755.2060000000001</v>
       </c>
       <c r="Z25" s="4">
         <v>2611.846</v>
       </c>
       <c r="AA25" s="4">
-        <v>2583.145</v>
+        <v>2583.2170000000001</v>
       </c>
       <c r="AB25" s="4">
-        <v>2790.5790000000002</v>
+        <v>2790.9479999999999</v>
       </c>
       <c r="AC25" s="4">
-        <v>2549.9610000000002</v>
+        <v>2550.4290000000001</v>
       </c>
       <c r="AD25" s="4">
-        <v>2454.3490000000002</v>
+        <v>2484.89</v>
       </c>
       <c r="AE25" s="4">
-        <v>2602.221</v>
+        <v>2610.4499999999998</v>
       </c>
       <c r="AF25" s="4">
-        <v>2623.9810000000002</v>
+        <v>2624.5410000000002</v>
       </c>
       <c r="AG25" s="4">
-        <v>2506.4</v>
+        <v>2509.1460000000002</v>
       </c>
       <c r="AH25" s="4">
-        <v>2829.0970000000002</v>
-      </c>
-      <c r="AI25" s="4"/>
+        <v>2827.259</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>2540.0210000000002</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>2645.6019999999999</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>2619.1909999999998</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>2688.078</v>
+      </c>
+      <c r="AM25" s="4">
+        <v>2703.8510000000001</v>
+      </c>
+      <c r="AN25" s="4">
+        <v>2704.4810000000002</v>
+      </c>
+      <c r="AO25" s="4">
+        <v>2836.0529999999999</v>
+      </c>
+      <c r="AP25" s="4">
+        <v>2838.6759999999999</v>
+      </c>
+      <c r="AQ25" s="4">
+        <v>2803.4540000000002</v>
+      </c>
+      <c r="AR25" s="4">
+        <v>2715.136</v>
+      </c>
+      <c r="AS25" s="4">
+        <v>2846.8150000000001</v>
+      </c>
+      <c r="AT25" s="4">
+        <v>2979.895</v>
+      </c>
+      <c r="AU25" s="4">
+        <v>3102.9859999999999</v>
+      </c>
+      <c r="AV25" s="4">
+        <v>2848.259</v>
+      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="4"/>
@@ -2401,7 +3375,7 @@
       <c r="S26">
         <v>1.159</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T26" s="6">
         <v>2.1459999999999999</v>
       </c>
       <c r="U26" s="4">
@@ -2417,13 +3391,13 @@
         <v>1.4910000000000001</v>
       </c>
       <c r="Y26" s="4">
-        <v>2.2640000000000002</v>
+        <v>2.2639999999999998</v>
       </c>
       <c r="Z26" s="4">
-        <v>0.82500000000000007</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="AA26" s="4">
-        <v>2.3319999999999999</v>
+        <v>2.331</v>
       </c>
       <c r="AB26" s="4">
         <v>0</v>
@@ -2432,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="AD26" s="4">
-        <v>3.9059999999999997</v>
+        <v>1.2030000000000001</v>
       </c>
       <c r="AE26" s="4">
         <v>0</v>
@@ -2441,21 +3415,62 @@
         <v>0</v>
       </c>
       <c r="AG26" s="4">
-        <v>0.66200000000000003</v>
+        <v>0.66</v>
       </c>
       <c r="AH26" s="4">
-        <v>2.113</v>
-      </c>
-      <c r="AI26" s="4"/>
+        <v>2.105</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>4.9740000000000002</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>0.877</v>
+      </c>
+      <c r="AM26" s="4">
+        <v>3.7789999999999999</v>
+      </c>
+      <c r="AN26" s="4">
+        <v>3.8319999999999999</v>
+      </c>
+      <c r="AO26" s="4">
+        <v>2.0920000000000001</v>
+      </c>
+      <c r="AP26" s="4">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="AQ26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="4">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="AS26" s="4">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="AT26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="4">
+        <v>2.2799999999999998</v>
+      </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="4"/>
@@ -2518,15 +3533,28 @@
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="4"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" t="s">
         <v>47</v>
       </c>
       <c r="D28" s="4"/>
@@ -2561,15 +3589,28 @@
       <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
       <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
+      <c r="AT28" s="4"/>
+      <c r="AU28" s="4"/>
+      <c r="AV28" s="4"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="4"/>
@@ -2632,15 +3673,28 @@
       <c r="AG29" s="4"/>
       <c r="AH29" s="4"/>
       <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="4"/>
+      <c r="AV29" s="4"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="4"/>
@@ -2703,15 +3757,28 @@
       <c r="AG30" s="4"/>
       <c r="AH30" s="4"/>
       <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="4"/>
+      <c r="AT30" s="4"/>
+      <c r="AU30" s="4"/>
+      <c r="AV30" s="4"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="4"/>
@@ -2745,15 +3812,28 @@
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
       <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4"/>
+      <c r="AO31" s="4"/>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="4"/>
+      <c r="AT31" s="4"/>
+      <c r="AU31" s="4"/>
+      <c r="AV31" s="4"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" t="s">
         <v>47</v>
       </c>
       <c r="D32" s="4"/>
@@ -2816,15 +3896,28 @@
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
       <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="4"/>
+      <c r="AS32" s="4"/>
+      <c r="AT32" s="4"/>
+      <c r="AU32" s="4"/>
+      <c r="AV32" s="4"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="4"/>
@@ -2887,15 +3980,28 @@
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
       <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="4"/>
+      <c r="AT33" s="4"/>
+      <c r="AU33" s="4"/>
+      <c r="AV33" s="4"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="4"/>
@@ -2958,15 +4064,28 @@
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
       <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="4"/>
+      <c r="AS34" s="4"/>
+      <c r="AT34" s="4"/>
+      <c r="AU34" s="4"/>
+      <c r="AV34" s="4"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="4"/>
@@ -3029,15 +4148,28 @@
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="4"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
+      <c r="AV35" s="4"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="4"/>
@@ -3100,15 +4232,28 @@
       <c r="AG36" s="4"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="4"/>
@@ -3143,15 +4288,28 @@
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="4"/>
+      <c r="AT37" s="4"/>
+      <c r="AU37" s="4"/>
+      <c r="AV37" s="4"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="4"/>
@@ -3214,15 +4372,28 @@
       <c r="AG38" s="4"/>
       <c r="AH38" s="4"/>
       <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+      <c r="AP38" s="4"/>
+      <c r="AQ38" s="4"/>
+      <c r="AR38" s="4"/>
+      <c r="AS38" s="4"/>
+      <c r="AT38" s="4"/>
+      <c r="AU38" s="4"/>
+      <c r="AV38" s="4"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="4"/>
@@ -3285,15 +4456,28 @@
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
       <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+      <c r="AP39" s="4"/>
+      <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="4"/>
+      <c r="AU39" s="4"/>
+      <c r="AV39" s="4"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="4"/>
@@ -3356,15 +4540,28 @@
       <c r="AG40" s="4"/>
       <c r="AH40" s="4"/>
       <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+      <c r="AT40" s="4"/>
+      <c r="AU40" s="4"/>
+      <c r="AV40" s="4"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" t="s">
         <v>47</v>
       </c>
       <c r="D41" s="4"/>
@@ -3427,15 +4624,28 @@
       <c r="AG41" s="4"/>
       <c r="AH41" s="4"/>
       <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
+      <c r="AP41" s="4"/>
+      <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="4"/>
+      <c r="AT41" s="4"/>
+      <c r="AU41" s="4"/>
+      <c r="AV41" s="4"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" t="s">
         <v>47</v>
       </c>
       <c r="D42" s="4"/>
@@ -3498,15 +4708,28 @@
       <c r="AG42" s="4"/>
       <c r="AH42" s="4"/>
       <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
+      <c r="AP42" s="4"/>
+      <c r="AQ42" s="4"/>
+      <c r="AR42" s="4"/>
+      <c r="AS42" s="4"/>
+      <c r="AT42" s="4"/>
+      <c r="AU42" s="4"/>
+      <c r="AV42" s="4"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" t="s">
         <v>47</v>
       </c>
       <c r="D43" s="4"/>
@@ -3569,15 +4792,28 @@
       <c r="AG43" s="4"/>
       <c r="AH43" s="4"/>
       <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4"/>
+      <c r="AO43" s="4"/>
+      <c r="AP43" s="4"/>
+      <c r="AQ43" s="4"/>
+      <c r="AR43" s="4"/>
+      <c r="AS43" s="4"/>
+      <c r="AT43" s="4"/>
+      <c r="AU43" s="4"/>
+      <c r="AV43" s="4"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" t="s">
         <v>47</v>
       </c>
       <c r="D44" s="4"/>
@@ -3640,15 +4876,28 @@
       <c r="AG44" s="4"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="4"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" t="s">
         <v>47</v>
       </c>
       <c r="D45" s="4"/>
@@ -3711,15 +4960,28 @@
       <c r="AG45" s="4"/>
       <c r="AH45" s="4"/>
       <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="4"/>
+      <c r="AO45" s="4"/>
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="4"/>
+      <c r="AR45" s="4"/>
+      <c r="AS45" s="4"/>
+      <c r="AT45" s="4"/>
+      <c r="AU45" s="4"/>
+      <c r="AV45" s="4"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="4"/>
@@ -3782,15 +5044,28 @@
       <c r="AG46" s="4"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="4"/>
+      <c r="AO46" s="4"/>
+      <c r="AP46" s="4"/>
+      <c r="AQ46" s="4"/>
+      <c r="AR46" s="4"/>
+      <c r="AS46" s="4"/>
+      <c r="AT46" s="4"/>
+      <c r="AU46" s="4"/>
+      <c r="AV46" s="4"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" t="s">
         <v>47</v>
       </c>
       <c r="D47" s="4"/>
@@ -3853,15 +5128,28 @@
       <c r="AG47" s="4"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
+      <c r="AJ47" s="4"/>
+      <c r="AK47" s="4"/>
+      <c r="AL47" s="4"/>
+      <c r="AM47" s="4"/>
+      <c r="AN47" s="4"/>
+      <c r="AO47" s="4"/>
+      <c r="AP47" s="4"/>
+      <c r="AQ47" s="4"/>
+      <c r="AR47" s="4"/>
+      <c r="AS47" s="4"/>
+      <c r="AT47" s="4"/>
+      <c r="AU47" s="4"/>
+      <c r="AV47" s="4"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" t="s">
         <v>47</v>
       </c>
       <c r="D48" s="4"/>
@@ -3924,15 +5212,28 @@
       <c r="AG48" s="4"/>
       <c r="AH48" s="4"/>
       <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+      <c r="AL48" s="4"/>
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="4"/>
+      <c r="AO48" s="4"/>
+      <c r="AP48" s="4"/>
+      <c r="AQ48" s="4"/>
+      <c r="AR48" s="4"/>
+      <c r="AS48" s="4"/>
+      <c r="AT48" s="4"/>
+      <c r="AU48" s="4"/>
+      <c r="AV48" s="4"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" t="s">
         <v>47</v>
       </c>
       <c r="D49" s="4"/>
@@ -3995,15 +5296,28 @@
       <c r="AG49" s="4"/>
       <c r="AH49" s="4"/>
       <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4"/>
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="4"/>
+      <c r="AO49" s="4"/>
+      <c r="AP49" s="4"/>
+      <c r="AQ49" s="4"/>
+      <c r="AR49" s="4"/>
+      <c r="AS49" s="4"/>
+      <c r="AT49" s="4"/>
+      <c r="AU49" s="4"/>
+      <c r="AV49" s="4"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="4"/>
@@ -4066,15 +5380,28 @@
       <c r="AG50" s="4"/>
       <c r="AH50" s="4"/>
       <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="4"/>
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="4"/>
+      <c r="AO50" s="4"/>
+      <c r="AP50" s="4"/>
+      <c r="AQ50" s="4"/>
+      <c r="AR50" s="4"/>
+      <c r="AS50" s="4"/>
+      <c r="AT50" s="4"/>
+      <c r="AU50" s="4"/>
+      <c r="AV50" s="4"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" t="s">
         <v>47</v>
       </c>
       <c r="D51" s="4"/>
@@ -4137,8 +5464,21 @@
       <c r="AG51" s="4"/>
       <c r="AH51" s="4"/>
       <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4"/>
+      <c r="AO51" s="4"/>
+      <c r="AP51" s="4"/>
+      <c r="AQ51" s="4"/>
+      <c r="AR51" s="4"/>
+      <c r="AS51" s="4"/>
+      <c r="AT51" s="4"/>
+      <c r="AU51" s="4"/>
+      <c r="AV51" s="4"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
     </row>
   </sheetData>
